--- a/项目文档/后台接口/友情链接接口文档.xlsx
+++ b/项目文档/后台接口/友情链接接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="核对清单 - 核对清单" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>模块</t>
   </si>
@@ -49,10 +49,16 @@
     <t>GET</t>
   </si>
   <si>
+    <t>分页查询</t>
+  </si>
+  <si>
     <t>/web/link/findAll</t>
   </si>
   <si>
     <t>start pageSize</t>
+  </si>
+  <si>
+    <t>默认start1 pageSize 10</t>
   </si>
   <si>
     <t>/web/link/findById</t>
@@ -87,11 +93,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -167,14 +173,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,10 +201,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,6 +213,67 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,49 +285,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,35 +300,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -322,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,27 +540,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -575,15 +561,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -595,6 +572,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,6 +614,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -636,10 +642,10 @@
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,16 +654,16 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,112 +675,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -803,11 +809,11 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2052,7 +2058,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="4"/>
@@ -2109,29 +2115,31 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="42.8" customHeight="1" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
+      <c r="A4" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" ht="22.75" customHeight="1" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
@@ -2140,48 +2148,48 @@
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:5">
       <c r="A7" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:5">
       <c r="A8" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="22.75" customHeight="1" spans="1:5">
       <c r="A9" s="22"/>
@@ -2193,7 +2201,7 @@
     <row r="10" ht="22.75" customHeight="1" spans="1:5">
       <c r="A10" s="23"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
@@ -2207,7 +2215,7 @@
     <row r="12" ht="22.75" customHeight="1" spans="1:5">
       <c r="A12" s="23"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
@@ -2221,7 +2229,7 @@
     <row r="14" ht="22.75" customHeight="1" spans="1:5">
       <c r="A14" s="23"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
@@ -2235,7 +2243,7 @@
     <row r="16" ht="22.75" customHeight="1" spans="1:5">
       <c r="A16" s="23"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
@@ -2249,7 +2257,7 @@
     <row r="18" ht="22.75" customHeight="1" spans="1:5">
       <c r="A18" s="23"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
@@ -2263,7 +2271,7 @@
     <row r="20" ht="22.75" customHeight="1" spans="1:5">
       <c r="A20" s="23"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="8"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
@@ -2277,7 +2285,7 @@
     <row r="22" ht="22.75" customHeight="1" spans="1:5">
       <c r="A22" s="23"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
@@ -2291,7 +2299,7 @@
     <row r="24" ht="22.75" customHeight="1" spans="1:5">
       <c r="A24" s="23"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
@@ -2305,7 +2313,7 @@
     <row r="26" ht="22.75" customHeight="1" spans="1:5">
       <c r="A26" s="23"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
@@ -2319,7 +2327,7 @@
     <row r="28" ht="22.75" customHeight="1" spans="1:5">
       <c r="A28" s="23"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="8"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
@@ -2333,7 +2341,7 @@
     <row r="30" ht="22.5" customHeight="1" spans="1:5">
       <c r="A30" s="23"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
